--- a/raw_data/KEEN ONE/Byrnes/2015/SW Appledore 2015/SWAppledore_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/SW Appledore 2015/SWAppledore_siteinfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="24560" windowHeight="9660" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Team</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>BYRNES, BMC, LYMAN, SARAH, CD, BEN</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -149,8 +158,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -200,7 +211,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -216,6 +227,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -231,6 +243,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,38 +597,47 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -628,39 +650,48 @@
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="5">
         <v>42229</v>
       </c>
-      <c r="F2" s="9">
+      <c r="I2" s="9">
         <v>42.985058035701499</v>
       </c>
-      <c r="G2" s="9">
+      <c r="J2" s="9">
         <v>-70.618827128782797</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3">
         <v>42.984900000000003</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>-70.618378000000007</v>
       </c>
-      <c r="J2" s="6">
+      <c r="M2" s="6">
         <v>4.5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="N2" s="6">
         <v>4</v>
       </c>
-      <c r="L2" s="6">
+      <c r="O2" s="6">
         <v>8</v>
       </c>
-      <c r="M2" s="3">
+      <c r="P2" s="3">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -673,37 +704,46 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="5">
         <v>42229</v>
       </c>
-      <c r="F3" s="9">
+      <c r="I3" s="9">
         <v>42.984289918094802</v>
       </c>
-      <c r="G3" s="9">
+      <c r="J3" s="9">
         <v>-70.618179962038994</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="3">
         <v>42.984620999999997</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
         <v>-70.618363000000002</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3" s="6">
         <v>6.8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>7.1</v>
       </c>
-      <c r="L3" s="6">
+      <c r="O3" s="6">
         <v>7</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -716,37 +756,46 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="5">
         <v>42227</v>
       </c>
-      <c r="F4" s="9">
+      <c r="I4" s="9">
         <v>42.985941823571899</v>
       </c>
-      <c r="G4" s="9">
+      <c r="J4" s="9">
         <v>-70.619933037087307</v>
       </c>
-      <c r="H4" s="9">
+      <c r="K4" s="9">
         <v>42.985743172466698</v>
       </c>
-      <c r="I4" s="9">
+      <c r="L4" s="9">
         <v>-70.620136046782093</v>
       </c>
-      <c r="J4" s="8">
+      <c r="M4" s="8">
         <v>10.4</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>11.3</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>12.8</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -759,27 +808,36 @@
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="5">
         <v>42228</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5">
         <v>7.6</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="M5" s="7">
+      <c r="P5" s="7">
         <v>15.6</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -795,10 +853,13 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>1</formula1>
       <formula2>40</formula2>
     </dataValidation>
